--- a/Docs/Testing (TES)/Test_Cases/TS_msg.xlsx
+++ b/Docs/Testing (TES)/Test_Cases/TS_msg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="20055" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Тестовые ситуации" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="95">
   <si>
     <t>N</t>
   </si>
@@ -58,15 +58,6 @@
   </si>
   <si>
     <t>F_msg_0001</t>
-  </si>
-  <si>
-    <t>1. В браузере ввести название страницы сайта 
-www.vashchenko.com/admin/author
-2. Убедиться, что браузер перешел на новую страницу</t>
-  </si>
-  <si>
-    <t>Убедиться, что в браузере отображается 
-страница "Об авторе"</t>
   </si>
   <si>
     <t>TS_msg_002</t>
@@ -91,15 +82,7 @@
     <t>TS_msg_004</t>
   </si>
   <si>
-    <t>Проверка полей на странице "Об авторе" 
-на их значения, которые должны совподать с последними добавленными ранее значениями</t>
-  </si>
-  <si>
     <t>TS_msg_005</t>
-  </si>
-  <si>
-    <t>Проверка полей на странице "Об авторе" на их пустые значения при первом 
-посещении страницы</t>
   </si>
   <si>
     <t>Проверка на активность / не активность
@@ -314,6 +297,116 @@
 7. Убедиться, что в поле "Subject" находиться значение
  "Test"
 8. Убедиться, что в поле "Text message" находиться значение "It's work"</t>
+  </si>
+  <si>
+    <t>ver 1.1</t>
+  </si>
+  <si>
+    <t>Msg</t>
+  </si>
+  <si>
+    <t>Gorshkov</t>
+  </si>
+  <si>
+    <t>1. Pass
+2. Pass</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Убедиться, что в браузере отображается 
+страница "Сообщение автора"</t>
+  </si>
+  <si>
+    <t>1. В браузере ввести название страницы редактирования сообщения автора
+2. Убедиться, что браузер перешел на новую страницу</t>
+  </si>
+  <si>
+    <t>Проверка полей на странице "Сообщение автора" на их пустые значения при первом 
+посещении страницы</t>
+  </si>
+  <si>
+    <t>Проверка полей на странице "Сообщение автора" 
+на их значения, которые должны совподать с последними добавленными ранее значениями</t>
+  </si>
+  <si>
+    <t>1. Fail
+2. Fail
+3. Fail
+4. Fail
+5. Fail</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>1. Blocked
+2. Blocked
+3. Blocked</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
+    <t>1. Blocked
+2. Blocked
+3. Blocked
+4. Blocked
+5. Blocked
+6. Blocked
+7. Blocked
+8. Blocked</t>
+  </si>
+  <si>
+    <t>1. Fail</t>
+  </si>
+  <si>
+    <t>1. Pass
+2. Pass
+3. Pass
+4. Pass
+5. Pass</t>
+  </si>
+  <si>
+    <t>1. Pass
+2. Pass
+3. Pass
+4. Pass
+5. Fail</t>
+  </si>
+  <si>
+    <t>#140</t>
+  </si>
+  <si>
+    <t>1. Pass
+2. Pass
+3. Pass
+4. Pass</t>
+  </si>
+  <si>
+    <t>1. Pass
+2. Pass
+3. Pass
+4. Blocked</t>
+  </si>
+  <si>
+    <t>1. Pass
+2. Pass
+3. Blocked</t>
+  </si>
+  <si>
+    <t>1. Pass
+2. Fail</t>
+  </si>
+  <si>
+    <t>#141</t>
+  </si>
+  <si>
+    <t>#142</t>
+  </si>
+  <si>
+    <t>#143</t>
   </si>
 </sst>
 </file>
@@ -350,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -361,35 +454,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
-    <dxf>
-      <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
@@ -423,39 +495,63 @@
     <dxf>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица1" displayName="Таблица1" ref="A1:F24" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица1" displayName="Таблица1" ref="A1:F24" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A1:F24"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="N" dataDxfId="7"/>
-    <tableColumn id="2" name="Test ID" dataDxfId="6"/>
-    <tableColumn id="3" name="Test description" dataDxfId="5"/>
-    <tableColumn id="4" name="Product" dataDxfId="4"/>
-    <tableColumn id="5" name="Requirement" dataDxfId="3"/>
-    <tableColumn id="7" name="Test steps" dataDxfId="2"/>
+    <tableColumn id="1" name="N" dataDxfId="16"/>
+    <tableColumn id="2" name="Test ID" dataDxfId="15"/>
+    <tableColumn id="3" name="Test description" dataDxfId="14"/>
+    <tableColumn id="4" name="Product" dataDxfId="13"/>
+    <tableColumn id="5" name="Requirement" dataDxfId="12"/>
+    <tableColumn id="7" name="Test steps" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:I2" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:I2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:I19" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I19"/>
   <tableColumns count="9">
-    <tableColumn id="2" name="N" dataDxfId="16"/>
-    <tableColumn id="3" name="Test ID" dataDxfId="15"/>
-    <tableColumn id="5" name="Product" dataDxfId="14"/>
-    <tableColumn id="6" name="Requirement" dataDxfId="13"/>
-    <tableColumn id="7" name="Tester name" dataDxfId="12"/>
-    <tableColumn id="8" name="Test steps" dataDxfId="11"/>
-    <tableColumn id="9" name="Result" dataDxfId="10"/>
-    <tableColumn id="10" name="Ticket ID" dataDxfId="9"/>
-    <tableColumn id="11" name="System" dataDxfId="8"/>
+    <tableColumn id="2" name="N" dataDxfId="8"/>
+    <tableColumn id="3" name="Test ID" dataDxfId="7"/>
+    <tableColumn id="5" name="Product" dataDxfId="6"/>
+    <tableColumn id="6" name="Requirement" dataDxfId="5"/>
+    <tableColumn id="7" name="Tester name" dataDxfId="4"/>
+    <tableColumn id="8" name="Test steps" dataDxfId="3"/>
+    <tableColumn id="9" name="Result" dataDxfId="2"/>
+    <tableColumn id="10" name="Ticket ID" dataDxfId="1"/>
+    <tableColumn id="11" name="System" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -748,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -798,7 +894,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="150">
@@ -806,10 +902,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
@@ -818,7 +914,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="60">
@@ -826,10 +922,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>12</v>
@@ -838,7 +934,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="195">
@@ -846,19 +942,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45">
@@ -866,10 +962,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>12</v>
@@ -878,7 +974,7 @@
         <v>13</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45">
@@ -886,19 +982,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="75">
@@ -906,19 +1002,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="60">
@@ -926,19 +1022,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="60">
@@ -946,19 +1042,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="75">
@@ -966,19 +1062,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="75">
@@ -986,19 +1082,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="60">
@@ -1006,147 +1102,152 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="75">
       <c r="A14" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="90">
       <c r="A15" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="75">
       <c r="A16" s="1">
-        <v>12</v>
+        <f>A15+1</f>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="90">
       <c r="A17" s="1">
-        <v>13</v>
+        <f>A16+1</f>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="105">
       <c r="A18" s="1">
-        <v>14</v>
+        <f t="shared" ref="A18:A23" si="0">A17+1</f>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="120">
       <c r="A19" s="1">
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1155,10 +1256,11 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1167,7 +1269,8 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1177,7 +1280,8 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1206,19 +1310,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
     <col min="7" max="7" width="22.85546875" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
     <col min="9" max="9" width="16.42578125" customWidth="1"/>
@@ -1253,16 +1358,567 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+    <row r="2" spans="1:9" ht="30">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="75">
+      <c r="A3" s="1">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="1" t="str">
+        <f>I2</f>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="45">
+      <c r="A4" s="1">
+        <f t="shared" ref="A4:A19" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f>H3</f>
+        <v>#140</v>
+      </c>
+      <c r="I4" s="1" t="str">
+        <f t="shared" ref="I4:I19" si="1">I3</f>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="120">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f>H4</f>
+        <v>#140</v>
+      </c>
+      <c r="I5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f>H6</f>
+        <v>#141</v>
+      </c>
+      <c r="I7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="45">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f>D7</f>
+        <v>F_msg_0013</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f t="shared" ref="H8:H12" si="2">H7</f>
+        <v>#141</v>
+      </c>
+      <c r="I8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="45">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f>D8</f>
+        <v>F_msg_0013</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>#141</v>
+      </c>
+      <c r="I9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="60">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f>D9</f>
+        <v>F_msg_0013</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>#141</v>
+      </c>
+      <c r="I10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="60">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f t="shared" ref="D11:D14" si="3">D10</f>
+        <v>F_msg_0013</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>#141</v>
+      </c>
+      <c r="I11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="60">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>F_msg_0013</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>#141</v>
+      </c>
+      <c r="I12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="60">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>F_msg_0013</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f>H12</f>
+        <v>#141</v>
+      </c>
+      <c r="I13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="60">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>F_msg_0013</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="75">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="75">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="75">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="75">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="75">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
